--- a/docs/mdc/001_MDC_PRETENSE_SYRIA.xlsx
+++ b/docs/mdc/001_MDC_PRETENSE_SYRIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JTF1-PRETENSE_SYRIA\docs\mdc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EF9210-321D-49E7-84FB-8AAFAE151422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD96A4D1-5E2A-41A4-88B6-A1F9C7540E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4150" yWindow="1910" windowWidth="22830" windowHeight="18390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7790" yWindow="1250" windowWidth="22830" windowHeight="18390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MISSION CARDS" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>MISSION DATA CARD</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t xml:space="preserve">ILS 108.7 </t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -264,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -318,12 +321,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="14"/>
       <color theme="10"/>
@@ -794,7 +791,7 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
@@ -868,138 +865,108 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1014,16 +981,28 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1058,124 +1037,142 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1276,6 +1273,61 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>293692</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95668</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA793F83-5A63-BB0A-CEB1-5DA5F437D0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674692" y="5238750"/>
+          <a:ext cx="5516976" cy="3897313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1550,7 +1602,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50:R50"/>
+      <selection activeCell="K21" sqref="K21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1559,780 +1611,780 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="92" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="94"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="33"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98" t="s">
+      <c r="K3" s="37"/>
+      <c r="L3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98" t="s">
+      <c r="M3" s="37"/>
+      <c r="N3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58">
+      <c r="A4" s="38">
         <v>1</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="82" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="83" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="58">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="38">
         <v>11</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="69">
+      <c r="K4" s="38"/>
+      <c r="L4" s="44">
         <v>344.02499999999998</v>
       </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="55" t="s">
+      <c r="M4" s="45"/>
+      <c r="N4" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58">
+      <c r="A5" s="38">
         <v>2</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59">
+      <c r="B5" s="38"/>
+      <c r="C5" s="20">
         <v>308.47500000000002</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="79" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="58">
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="38">
         <v>12</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="59">
+      <c r="K5" s="38"/>
+      <c r="L5" s="20">
         <v>367.57499999999999</v>
       </c>
-      <c r="M5" s="60"/>
-      <c r="N5" s="76" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="78"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="24"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58">
+      <c r="A6" s="38">
         <v>3</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="69">
+      <c r="B6" s="38"/>
+      <c r="C6" s="44">
         <v>285.67500000000001</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="58">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="38">
         <v>13</v>
       </c>
-      <c r="K6" s="58"/>
-      <c r="L6" s="69">
-        <v>344.02499999999998</v>
-      </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="55" t="s">
+      <c r="K6" s="38"/>
+      <c r="L6" s="44">
+        <v>302.32499999999999</v>
+      </c>
+      <c r="M6" s="45"/>
+      <c r="N6" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="57"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58">
+      <c r="A7" s="38">
         <v>4</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59">
+      <c r="B7" s="38"/>
+      <c r="C7" s="20">
         <v>251</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="79" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="58">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="38">
         <v>14</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="59">
+      <c r="K7" s="38"/>
+      <c r="L7" s="20">
         <v>280.125</v>
       </c>
-      <c r="M7" s="60"/>
-      <c r="N7" s="76" t="s">
+      <c r="M7" s="21"/>
+      <c r="N7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="78"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58">
+      <c r="A8" s="38">
         <v>5</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="69">
+      <c r="B8" s="38"/>
+      <c r="C8" s="44">
         <v>251.5</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="58">
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="38">
         <v>15</v>
       </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="69">
+      <c r="K8" s="38"/>
+      <c r="L8" s="44">
         <v>360.02499999999998</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="55" t="s">
+      <c r="M8" s="45"/>
+      <c r="N8" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="57"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58">
+      <c r="A9" s="38">
         <v>6</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59">
+      <c r="B9" s="38"/>
+      <c r="C9" s="20">
         <v>250</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="79" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="58">
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="38">
         <v>16</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="59">
+      <c r="K9" s="38"/>
+      <c r="L9" s="20">
         <v>357.77499999999998</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="76" t="s">
+      <c r="M9" s="21"/>
+      <c r="N9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="78"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="24"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58">
+      <c r="A10" s="38">
         <v>7</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="69">
+      <c r="B10" s="38"/>
+      <c r="C10" s="44">
         <v>317.77499999999998</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="58">
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="38">
         <v>17</v>
       </c>
-      <c r="K10" s="58"/>
-      <c r="L10" s="69">
+      <c r="K10" s="38"/>
+      <c r="L10" s="44">
         <v>228.85</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="55" t="s">
+      <c r="M10" s="45"/>
+      <c r="N10" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="57"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="48"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58">
+      <c r="A11" s="38">
         <v>8</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="64">
+      <c r="B11" s="38"/>
+      <c r="C11" s="58">
         <v>276.10000000000002</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="61" t="s">
+      <c r="D11" s="59"/>
+      <c r="E11" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="58">
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="38">
         <v>18</v>
       </c>
-      <c r="K11" s="58"/>
-      <c r="L11" s="64">
+      <c r="K11" s="38"/>
+      <c r="L11" s="58">
         <v>238.17500000000001</v>
       </c>
-      <c r="M11" s="65"/>
-      <c r="N11" s="66" t="s">
+      <c r="M11" s="59"/>
+      <c r="N11" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="68"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="62"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58">
+      <c r="A12" s="38">
         <v>9</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="74">
+      <c r="B12" s="38"/>
+      <c r="C12" s="63">
         <v>282.02499999999998</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="71" t="s">
+      <c r="D12" s="40"/>
+      <c r="E12" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="58">
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="38">
         <v>19</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="69">
+      <c r="K12" s="38"/>
+      <c r="L12" s="44">
         <v>266.375</v>
       </c>
-      <c r="M12" s="70"/>
-      <c r="N12" s="55" t="s">
+      <c r="M12" s="45"/>
+      <c r="N12" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="57"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58">
+      <c r="A13" s="38">
         <v>10</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59">
+      <c r="B13" s="38"/>
+      <c r="C13" s="20">
         <v>294.7</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="58">
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="38">
         <v>20</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="64">
+      <c r="K13" s="38"/>
+      <c r="L13" s="58">
         <v>261.875</v>
       </c>
-      <c r="M13" s="65"/>
-      <c r="N13" s="66" t="s">
+      <c r="M13" s="59"/>
+      <c r="N13" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="68"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="62"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="27"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="66"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="44" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="44" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="45"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="44" t="s">
+      <c r="J15" s="68"/>
+      <c r="K15" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="44" t="s">
+      <c r="L15" s="68"/>
+      <c r="M15" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="45"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="68"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="47" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="50">
+      <c r="D16" s="72"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="73">
         <v>276.5</v>
       </c>
-      <c r="G16" s="51"/>
+      <c r="G16" s="74"/>
       <c r="H16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="47" t="s">
+      <c r="J16" s="71"/>
+      <c r="K16" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="52" t="s">
+      <c r="L16" s="71"/>
+      <c r="M16" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="54"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="92"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="33" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="36">
+      <c r="D17" s="80"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="81">
         <v>317.5</v>
       </c>
-      <c r="G17" s="37"/>
+      <c r="G17" s="82"/>
       <c r="H17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="33" t="s">
+      <c r="J17" s="79"/>
+      <c r="K17" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="41" t="s">
+      <c r="L17" s="79"/>
+      <c r="M17" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="43"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="95"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="28" t="s">
+      <c r="B18" s="76"/>
+      <c r="C18" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="31">
+      <c r="D18" s="77"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="83">
         <v>276.10000000000002</v>
       </c>
-      <c r="G18" s="32"/>
+      <c r="G18" s="84"/>
       <c r="H18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="28" t="s">
+      <c r="J18" s="76"/>
+      <c r="K18" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="38" t="s">
+      <c r="L18" s="76"/>
+      <c r="M18" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="33" t="s">
+      <c r="B19" s="79"/>
+      <c r="C19" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="36">
+      <c r="D19" s="80"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="81">
         <v>317.60000000000002</v>
       </c>
-      <c r="G19" s="37"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="33" t="s">
+      <c r="J19" s="79"/>
+      <c r="K19" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="41" t="s">
+      <c r="L19" s="79"/>
+      <c r="M19" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="43"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="95"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28" t="s">
+      <c r="B20" s="76"/>
+      <c r="C20" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="31">
+      <c r="D20" s="77"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="83">
         <v>317.77499999999998</v>
       </c>
-      <c r="G20" s="32"/>
+      <c r="G20" s="84"/>
       <c r="H20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="28" t="s">
+      <c r="J20" s="76"/>
+      <c r="K20" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="38" t="s">
+      <c r="L20" s="76"/>
+      <c r="M20" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="40"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="43"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="95"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="84"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="40"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="33" t="s">
+      <c r="B23" s="79"/>
+      <c r="C23" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="36" t="s">
+      <c r="D23" s="80"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="37"/>
+      <c r="G23" s="82"/>
       <c r="H23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="33" t="s">
+      <c r="J23" s="79"/>
+      <c r="K23" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="34"/>
-      <c r="M23" s="41" t="s">
+      <c r="L23" s="79"/>
+      <c r="M23" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="43"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="95"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="84"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="40"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="33" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="36">
+      <c r="D25" s="80"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="81">
         <v>367.57499999999999</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G25" s="82"/>
       <c r="H25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="33" t="s">
+      <c r="J25" s="79"/>
+      <c r="K25" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="41" t="s">
+      <c r="L25" s="79"/>
+      <c r="M25" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="43"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="95"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="27"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="66"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
@@ -2755,134 +2807,273 @@
       <c r="R47" s="11"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="27"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="66"/>
     </row>
     <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="33" t="s">
+      <c r="B49" s="79"/>
+      <c r="C49" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="36">
+      <c r="D49" s="80"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="81">
         <v>122.7</v>
       </c>
-      <c r="G49" s="37"/>
+      <c r="G49" s="82"/>
       <c r="H49" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I49" s="33" t="s">
+      <c r="I49" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="34"/>
-      <c r="K49" s="33" t="s">
+      <c r="J49" s="79"/>
+      <c r="K49" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="L49" s="34"/>
-      <c r="M49" s="33" t="s">
+      <c r="L49" s="79"/>
+      <c r="M49" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="34"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="79"/>
     </row>
     <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="28" t="s">
+      <c r="B50" s="76"/>
+      <c r="C50" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="31">
+      <c r="D50" s="77"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="83">
         <v>125</v>
       </c>
-      <c r="G50" s="32"/>
+      <c r="G50" s="84"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="28" t="s">
+      <c r="I50" s="75"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="29"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="77"/>
+      <c r="Q50" s="77"/>
+      <c r="R50" s="76"/>
     </row>
     <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="33"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="37"/>
+      <c r="A51" s="78"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="82"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="34"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="80"/>
+      <c r="Q51" s="80"/>
+      <c r="R51" s="79"/>
     </row>
     <row r="52" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="24"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="89"/>
       <c r="H52" s="14"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="21"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="86"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="87"/>
+      <c r="R52" s="86"/>
     </row>
     <row r="53" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <mergeCells count="163">
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:R52"/>
+    <mergeCell ref="A48:R48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:R50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:R51"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:R49"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="A26:R26"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:R9"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:R7"/>
     <mergeCell ref="A1:F1"/>
@@ -2907,145 +3098,6 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:R5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A14:R14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="A26:R26"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M49:R49"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:R52"/>
-    <mergeCell ref="A48:R48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:R50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:R51"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/docs/mdc/001_MDC_PRETENSE_SYRIA.xlsx
+++ b/docs/mdc/001_MDC_PRETENSE_SYRIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JTF1-PRETENSE_SYRIA\docs\mdc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD96A4D1-5E2A-41A4-88B6-A1F9C7540E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C79E478-3A88-4024-ACA8-3A4F5F844FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7790" yWindow="1250" windowWidth="22830" windowHeight="18390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16250" yWindow="2050" windowWidth="21750" windowHeight="18390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MISSION CARDS" sheetId="6" r:id="rId1"/>
@@ -242,15 +242,9 @@
     <t>ARWB / FL240 / KC135</t>
   </si>
   <si>
-    <t>ARWB / FL200 / KC135MPRS</t>
-  </si>
-  <si>
     <t>ARXE / FL240 / KC135</t>
   </si>
   <si>
-    <t>ARXE / FL200 / KC135MPRS</t>
-  </si>
-  <si>
     <t>AKROTIRI</t>
   </si>
   <si>
@@ -258,6 +252,12 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>ARWB / FL220 / KC135MPRS</t>
+  </si>
+  <si>
+    <t>ARXE / FL220 / KC135MPRS</t>
   </si>
 </sst>
 </file>
@@ -865,12 +865,234 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -937,15 +1159,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -958,220 +1172,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1602,7 +1602,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:L21"/>
+      <selection activeCell="M22" sqref="M22:R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1611,780 +1611,780 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31" t="s">
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="93"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="94"/>
+      <c r="E3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37" t="s">
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37" t="s">
+      <c r="K3" s="94"/>
+      <c r="L3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37" t="s">
+      <c r="M3" s="94"/>
+      <c r="N3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
+      <c r="A4" s="58">
         <v>1</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="38">
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="58">
         <v>11</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="44">
+      <c r="K4" s="58"/>
+      <c r="L4" s="69">
         <v>344.02499999999998</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="46" t="s">
+      <c r="M4" s="70"/>
+      <c r="N4" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="57"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
+      <c r="A5" s="58">
         <v>2</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="20">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59">
         <v>308.47500000000002</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="49" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="38">
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="58">
         <v>12</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="20">
+      <c r="K5" s="58"/>
+      <c r="L5" s="59">
         <v>367.57499999999999</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22" t="s">
+      <c r="M5" s="60"/>
+      <c r="N5" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="81"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
+      <c r="A6" s="58">
         <v>3</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="44">
+      <c r="B6" s="58"/>
+      <c r="C6" s="69">
         <v>285.67500000000001</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="52" t="s">
+      <c r="D6" s="70"/>
+      <c r="E6" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="38">
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="58">
         <v>13</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="44">
+      <c r="K6" s="58"/>
+      <c r="L6" s="69">
         <v>302.32499999999999</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="46" t="s">
+      <c r="M6" s="70"/>
+      <c r="N6" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="48"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="57"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
+      <c r="A7" s="58">
         <v>4</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="20">
+      <c r="B7" s="58"/>
+      <c r="C7" s="59">
         <v>251</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="38">
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="58">
         <v>14</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="20">
+      <c r="K7" s="58"/>
+      <c r="L7" s="59">
         <v>280.125</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22" t="s">
+      <c r="M7" s="60"/>
+      <c r="N7" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="81"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
+      <c r="A8" s="58">
         <v>5</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="44">
+      <c r="B8" s="58"/>
+      <c r="C8" s="69">
         <v>251.5</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="52" t="s">
+      <c r="D8" s="70"/>
+      <c r="E8" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="38">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="58">
         <v>15</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="44">
+      <c r="K8" s="58"/>
+      <c r="L8" s="69">
         <v>360.02499999999998</v>
       </c>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46" t="s">
+      <c r="M8" s="70"/>
+      <c r="N8" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="48"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="57"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
+      <c r="A9" s="58">
         <v>6</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="20">
+      <c r="B9" s="58"/>
+      <c r="C9" s="59">
         <v>250</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="49" t="s">
+      <c r="D9" s="60"/>
+      <c r="E9" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="38">
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="58">
         <v>16</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="20">
+      <c r="K9" s="58"/>
+      <c r="L9" s="59">
         <v>357.77499999999998</v>
       </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22" t="s">
+      <c r="M9" s="60"/>
+      <c r="N9" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="24"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="81"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
+      <c r="A10" s="58">
         <v>7</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="44">
+      <c r="B10" s="58"/>
+      <c r="C10" s="69">
         <v>317.77499999999998</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="52" t="s">
+      <c r="D10" s="70"/>
+      <c r="E10" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="38">
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="58">
         <v>17</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="44">
+      <c r="K10" s="58"/>
+      <c r="L10" s="69">
         <v>228.85</v>
       </c>
-      <c r="M10" s="45"/>
-      <c r="N10" s="46" t="s">
+      <c r="M10" s="70"/>
+      <c r="N10" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="48"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="57"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
+      <c r="A11" s="58">
         <v>8</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="58">
+      <c r="B11" s="58"/>
+      <c r="C11" s="64">
         <v>276.10000000000002</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="55" t="s">
+      <c r="D11" s="65"/>
+      <c r="E11" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="38">
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="58">
         <v>18</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="58">
+      <c r="K11" s="58"/>
+      <c r="L11" s="64">
         <v>238.17500000000001</v>
       </c>
-      <c r="M11" s="59"/>
-      <c r="N11" s="60" t="s">
+      <c r="M11" s="65"/>
+      <c r="N11" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="62"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="68"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38">
+      <c r="A12" s="58">
         <v>9</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="63">
+      <c r="B12" s="58"/>
+      <c r="C12" s="74">
         <v>282.02499999999998</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="52" t="s">
+      <c r="D12" s="75"/>
+      <c r="E12" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="38">
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="58">
         <v>19</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="44">
+      <c r="K12" s="58"/>
+      <c r="L12" s="69">
         <v>266.375</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="46" t="s">
+      <c r="M12" s="70"/>
+      <c r="N12" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="48"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38">
+      <c r="A13" s="58">
         <v>10</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="20">
+      <c r="B13" s="58"/>
+      <c r="C13" s="59">
         <v>294.7</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="55" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="38">
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="58">
         <v>20</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="58">
+      <c r="K13" s="58"/>
+      <c r="L13" s="64">
         <v>261.875</v>
       </c>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60" t="s">
+      <c r="M13" s="65"/>
+      <c r="N13" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="62"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="68"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="66"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="27"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="67" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="67" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="68"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="67" t="s">
+      <c r="J15" s="45"/>
+      <c r="K15" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="68"/>
-      <c r="M15" s="67" t="s">
+      <c r="L15" s="45"/>
+      <c r="M15" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="68"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="45"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="70" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="73">
+      <c r="D16" s="49"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="50">
         <v>276.5</v>
       </c>
-      <c r="G16" s="74"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="70" t="s">
+      <c r="I16" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="71"/>
-      <c r="K16" s="70" t="s">
+      <c r="J16" s="48"/>
+      <c r="K16" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="71"/>
-      <c r="M16" s="90" t="s">
+      <c r="L16" s="48"/>
+      <c r="M16" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="54"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="78" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="81">
+      <c r="D17" s="35"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="36">
         <v>317.5</v>
       </c>
-      <c r="G17" s="82"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="78" t="s">
+      <c r="I17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="79"/>
-      <c r="K17" s="78" t="s">
+      <c r="J17" s="34"/>
+      <c r="K17" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="79"/>
-      <c r="M17" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="95"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="43"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="75" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="83">
+      <c r="D18" s="30"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="31">
         <v>276.10000000000002</v>
       </c>
-      <c r="G18" s="84"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="75" t="s">
+      <c r="I18" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="76"/>
-      <c r="K18" s="75" t="s">
+      <c r="J18" s="29"/>
+      <c r="K18" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="76"/>
-      <c r="M18" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="98"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="40"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="78" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="81">
+      <c r="D19" s="35"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="36">
         <v>317.60000000000002</v>
       </c>
-      <c r="G19" s="82"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="78" t="s">
+      <c r="I19" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="79"/>
-      <c r="K19" s="78" t="s">
+      <c r="J19" s="34"/>
+      <c r="K19" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="79"/>
-      <c r="M19" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="95"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="43"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="75" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="83">
+      <c r="D20" s="30"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="31">
         <v>317.77499999999998</v>
       </c>
-      <c r="G20" s="84"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="76"/>
-      <c r="K20" s="75" t="s">
+      <c r="J20" s="29"/>
+      <c r="K20" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="76"/>
-      <c r="M20" s="96" t="s">
+      <c r="L20" s="29"/>
+      <c r="M20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="98"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="40"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="95"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="43"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="75"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="84"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="98"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="40"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="78" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="81" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="82"/>
+      <c r="G23" s="37"/>
       <c r="H23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="78" t="s">
+      <c r="J23" s="34"/>
+      <c r="K23" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="79"/>
-      <c r="M23" s="93" t="s">
+      <c r="L23" s="34"/>
+      <c r="M23" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="95"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="43"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="84"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="98"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="40"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="78" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="81">
+      <c r="D25" s="35"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="36">
         <v>367.57499999999999</v>
       </c>
-      <c r="G25" s="82"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="78" t="s">
+      <c r="I25" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="78" t="s">
+      <c r="J25" s="34"/>
+      <c r="K25" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="79"/>
-      <c r="M25" s="93" t="s">
+      <c r="L25" s="34"/>
+      <c r="M25" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="95"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="43"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="66"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="27"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
@@ -2807,134 +2807,273 @@
       <c r="R47" s="11"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65"/>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="66"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="27"/>
     </row>
     <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="78" t="s">
+      <c r="A49" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="79"/>
-      <c r="C49" s="78" t="s">
+      <c r="B49" s="34"/>
+      <c r="C49" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="80"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="81">
+      <c r="D49" s="35"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="36">
         <v>122.7</v>
       </c>
-      <c r="G49" s="82"/>
+      <c r="G49" s="37"/>
       <c r="H49" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I49" s="78" t="s">
+      <c r="I49" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="79"/>
-      <c r="K49" s="78" t="s">
+      <c r="J49" s="34"/>
+      <c r="K49" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L49" s="79"/>
-      <c r="M49" s="78" t="s">
+      <c r="L49" s="34"/>
+      <c r="M49" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="N49" s="80"/>
-      <c r="O49" s="80"/>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="80"/>
-      <c r="R49" s="79"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="34"/>
     </row>
     <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="76"/>
-      <c r="C50" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="77"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="83">
+      <c r="B50" s="29"/>
+      <c r="C50" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="31">
         <v>125</v>
       </c>
-      <c r="G50" s="84"/>
+      <c r="G50" s="32"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="N50" s="77"/>
-      <c r="O50" s="77"/>
-      <c r="P50" s="77"/>
-      <c r="Q50" s="77"/>
-      <c r="R50" s="76"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="29"/>
     </row>
     <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="78"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="82"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="37"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="80"/>
-      <c r="O51" s="80"/>
-      <c r="P51" s="80"/>
-      <c r="Q51" s="80"/>
-      <c r="R51" s="79"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="34"/>
     </row>
     <row r="52" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="85"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="89"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="24"/>
       <c r="H52" s="14"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="86"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="21"/>
     </row>
     <row r="53" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <mergeCells count="163">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="A26:R26"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="M49:R49"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:R25"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="F52:G52"/>
@@ -2959,145 +3098,6 @@
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:R49"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="A26:R26"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A14:R14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:R5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
